--- a/20170728周报/技术支撑服务人员周报日报-20170728.xlsx
+++ b/20170728周报/技术支撑服务人员周报日报-20170728.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t>项目名称</t>
   </si>
@@ -78,14 +78,6 @@
   </si>
   <si>
     <t>咪咕音乐后台</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>咪咕音乐后台</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>咪咕音乐运维系统</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -572,7 +564,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -615,7 +607,7 @@
     </row>
     <row r="2" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -633,13 +625,13 @@
     </row>
     <row r="3" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -651,7 +643,7 @@
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -667,9 +659,9 @@
       <c r="G4" s="8"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
@@ -685,9 +677,9 @@
       <c r="G5" s="9"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -703,9 +695,9 @@
       <c r="G6" s="8"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -747,7 +739,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -765,7 +757,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -783,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>10</v>

--- a/20170728周报/技术支撑服务人员周报日报-20170728.xlsx
+++ b/20170728周报/技术支撑服务人员周报日报-20170728.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="396" windowWidth="18084" windowHeight="6420"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>项目名称</t>
   </si>
@@ -43,6 +43,9 @@
     <t>输出物</t>
   </si>
   <si>
+    <t>咪咕音乐后台</t>
+  </si>
+  <si>
     <t>刘韬</t>
   </si>
   <si>
@@ -52,12 +55,13 @@
     <t>北京烽火</t>
   </si>
   <si>
-    <t>北京烽火</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>1.内容组content代码迁移                                           2.接口测试</t>
+  </si>
+  <si>
+    <t>杜智恒</t>
   </si>
   <si>
     <t>凌河源</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>陆晨曦</t>
@@ -66,42 +70,35 @@
     <t>赵小平</t>
   </si>
   <si>
+    <t>陈毅昌</t>
+  </si>
+  <si>
     <t>王琪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>范小燕</t>
+  </si>
+  <si>
+    <t>罗健</t>
+  </si>
+  <si>
+    <t>周小龙</t>
   </si>
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈毅昌</t>
-  </si>
-  <si>
-    <t>咪咕音乐后台</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>杜智恒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>范小燕</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗健</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周小龙</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,38 +133,168 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,12 +303,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -215,18 +528,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -240,31 +801,72 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -282,7 +884,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -555,293 +1157,300 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" customWidth="1"/>
-    <col min="8" max="8" width="53.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.775" customWidth="1"/>
+    <col min="5" max="5" width="21.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="23.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="48.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="53.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="49.2" customHeight="1" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7">
+        <v>42940</v>
+      </c>
+      <c r="F2" s="7">
+        <v>42944</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="34.8" customHeight="1" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170728周报/技术支撑服务人员周报日报-20170728.xlsx
+++ b/20170728周报/技术支撑服务人员周报日报-20170728.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>项目名称</t>
   </si>
@@ -71,6 +71,13 @@
   </si>
   <si>
     <t>陈毅昌</t>
+  </si>
+  <si>
+    <t>1.把所有内容组相关的接口独立出来
+2.测试所迁移的代码</t>
+  </si>
+  <si>
+    <t>代码和文档</t>
   </si>
   <si>
     <t>王琪</t>
@@ -93,12 +100,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,42 +140,58 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -180,16 +203,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,23 +233,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,54 +280,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,7 +310,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,37 +340,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,127 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,11 +524,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,17 +554,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,46 +607,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,10 +627,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,143 +639,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -801,14 +796,17 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -884,7 +882,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1157,16 +1155,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1264,7 +1263,7 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="9"/>
     </row>
     <row r="5" ht="17.25" spans="1:8">
@@ -1300,10 +1299,10 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" ht="56" customHeight="1" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1316,10 +1315,18 @@
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c r="E7" s="7">
+        <v>42940</v>
+      </c>
+      <c r="F7" s="7">
+        <v>42944</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" ht="17.25" spans="1:8">
       <c r="A8" s="5" t="s">
@@ -1329,7 +1336,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>11</v>
@@ -1346,15 +1353,15 @@
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>19</v>
+      <c r="C9" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" ht="17.25" spans="1:8">
@@ -1364,15 +1371,15 @@
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>20</v>
+      <c r="C10" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" ht="17.25" spans="1:8">
@@ -1382,15 +1389,15 @@
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>21</v>
+      <c r="C11" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
   </sheetData>
@@ -1401,7 +1408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -1413,7 +1420,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170728周报/技术支撑服务人员周报日报-20170728.xlsx
+++ b/20170728周报/技术支撑服务人员周报日报-20170728.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\周报\weekReport\20170728周报\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>项目名称</t>
   </si>
@@ -93,19 +98,19 @@
   </si>
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
+  </si>
+  <si>
+    <t>1、校园营销活动上线及验证
+2、白金会员领取免费数字专辑活动开发
+3、批量查询策略接口修改</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,10 +119,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -127,6 +138,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -147,155 +164,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,192 +185,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -523,259 +224,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -783,92 +242,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1160,53 +576,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="11.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="15.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.775" customWidth="1"/>
-    <col min="5" max="5" width="21.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="23.1083333333333" customWidth="1"/>
-    <col min="7" max="7" width="48.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="53.775" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="49.2" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1230,7 +646,7 @@
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" ht="34.8" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1248,7 +664,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" ht="17.25" spans="1:8">
+    <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1263,10 +679,12 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" ht="17.25" spans="1:8">
+    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1284,7 +702,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" ht="17.25" spans="1:8">
+    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1302,7 +720,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" ht="56" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1321,14 +739,14 @@
       <c r="F7" s="7">
         <v>42944</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="17.25" spans="1:8">
+    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1346,14 +764,14 @@
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -1364,14 +782,14 @@
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" ht="17.25" spans="1:8">
+    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1382,14 +800,14 @@
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1401,63 +819,62 @@
       <c r="H11" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A11"/>
+      <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/20170728周报/技术支撑服务人员周报日报-20170728.xlsx
+++ b/20170728周报/技术支撑服务人员周报日报-20170728.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\周报\weekReport\20170728周报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\weekReport\20170728周报\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>项目名称</t>
   </si>
@@ -103,6 +103,11 @@
     <t>1、校园营销活动上线及验证
 2、白金会员领取免费数字专辑活动开发
 3、批量查询策略接口修改</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.MIGU2.0内容相关业务新框架迁移、调测；
+2.热门活动异省访问问题监控，问题原因排查；</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -236,12 +241,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -270,6 +269,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -580,243 +585,245 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="16.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5">
         <v>42940</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>42944</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="s">
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5">
         <v>42940</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>42944</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -836,39 +843,39 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
+      <c r="A2" s="13"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
+      <c r="A3" s="13"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
+      <c r="A4" s="13"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
+      <c r="A5" s="13"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
+      <c r="A6" s="13"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
+      <c r="A7" s="13"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="A8" s="13"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="A9" s="13"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
+      <c r="A10" s="13"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
+      <c r="A11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/20170728周报/技术支撑服务人员周报日报-20170728.xlsx
+++ b/20170728周报/技术支撑服务人员周报日报-20170728.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\weekReport\20170728周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="21255" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>项目名称</t>
   </si>
@@ -67,55 +62,67 @@
   </si>
   <si>
     <t>凌河源</t>
-  </si>
-  <si>
-    <t>陆晨曦</t>
-  </si>
-  <si>
-    <t>赵小平</t>
-  </si>
-  <si>
-    <t>陈毅昌</t>
-  </si>
-  <si>
-    <t>1.把所有内容组相关的接口独立出来
-2.测试所迁移的代码</t>
-  </si>
-  <si>
-    <t>代码和文档</t>
-  </si>
-  <si>
-    <t>王琪</t>
-  </si>
-  <si>
-    <t>范小燕</t>
-  </si>
-  <si>
-    <t>罗健</t>
-  </si>
-  <si>
-    <t>周小龙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
   <si>
     <t>1、校园营销活动上线及验证
 2、白金会员领取免费数字专辑活动开发
 3、批量查询策略接口修改</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆晨曦</t>
+  </si>
+  <si>
+    <t>赵小平</t>
+  </si>
+  <si>
+    <t>1、点赞或取消点赞接口开发
+2、获取栏目下所有或具体内容的点赞数接口开发
+3、活动点赞数后台配置界面前端和后台开发</t>
+  </si>
+  <si>
+    <t>代码、文档</t>
+  </si>
+  <si>
+    <t>陈毅昌</t>
+  </si>
+  <si>
+    <t>1.把所有内容组相关的接口独立出来
+2.测试所迁移的代码</t>
+  </si>
+  <si>
+    <t>代码和文档</t>
+  </si>
+  <si>
+    <t>王琪</t>
+  </si>
+  <si>
+    <t>范小燕</t>
+  </si>
+  <si>
+    <t>罗健</t>
   </si>
   <si>
     <t>1.MIGU2.0内容相关业务新框架迁移、调测；
 2.热门活动异省访问问题监控，问题原因排查；</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>周小龙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,16 +131,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -143,12 +144,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -171,17 +166,153 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,12 +321,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -229,67 +546,353 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -576,312 +1179,321 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="49.15" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="8">
         <v>42940</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="8">
         <v>42944</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="34.9" customHeight="1" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="51.75" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="51.75" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8">
+        <v>42940</v>
+      </c>
+      <c r="F6" s="8">
+        <v>42944</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="56.1" customHeight="1" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8">
+        <v>42940</v>
+      </c>
+      <c r="F7" s="8">
+        <v>42944</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="34.5" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5">
-        <v>42940</v>
-      </c>
-      <c r="F7" s="5">
-        <v>42944</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170728周报/技术支撑服务人员周报日报-20170728.xlsx
+++ b/20170728周报/技术支撑服务人员周报日报-20170728.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21255" windowHeight="7830"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>项目名称</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>范小燕</t>
+  </si>
+  <si>
+    <t>1.迁移代码，任务有十个接口。                                2.测试所负责的接口，并找到相关测试参数数据，以确保接口测试正常。                                               3.对于所迁代码有些验证修改以及注解添加等。</t>
   </si>
   <si>
     <t>罗健</t>
@@ -164,15 +167,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,14 +204,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,111 +292,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,187 +330,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,30 +544,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -582,6 +555,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,16 +583,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -627,6 +609,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -636,11 +627,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,136 +659,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1188,7 +1185,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1380,7 +1377,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" ht="87" customHeight="1" spans="1:8">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -1393,10 +1390,18 @@
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+      <c r="E9" s="8">
+        <v>42940</v>
+      </c>
+      <c r="F9" s="8">
+        <v>42944</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" ht="34.5" spans="1:8">
       <c r="A10" s="6" t="s">
@@ -1406,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1414,7 +1419,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H10" s="10"/>
     </row>
@@ -1426,7 +1431,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1456,7 +1461,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170728周报/技术支撑服务人员周报日报-20170728.xlsx
+++ b/20170728周报/技术支撑服务人员周报日报-20170728.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\周报\weekReport\20170728周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>项目名称</t>
   </si>
@@ -64,6 +59,12 @@
   </si>
   <si>
     <t>杜智恒</t>
+  </si>
+  <si>
+    <t>1.完成黑白名单需求转交测试                                              2.根据新增的封装工具调整代码                                  3.文档编写</t>
+  </si>
+  <si>
+    <t>代码、文档</t>
   </si>
   <si>
     <t>凌河源</t>
@@ -77,6 +78,9 @@
     <t>陆晨曦</t>
   </si>
   <si>
+    <t>playlist相关接口重写</t>
+  </si>
+  <si>
     <t>赵小平</t>
   </si>
   <si>
@@ -85,9 +89,6 @@
 3、活动点赞数后台配置界面前端和后台开发</t>
   </si>
   <si>
-    <t>代码、文档</t>
-  </si>
-  <si>
     <t>陈毅昌</t>
   </si>
   <si>
@@ -95,16 +96,19 @@
 2.测试所迁移的代码</t>
   </si>
   <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>王琪</t>
+  </si>
+  <si>
+    <t>范小燕</t>
+  </si>
+  <si>
+    <t>1.迁移代码，任务有十个接口。                                2.测试所负责的接口，并找到相关测试参数数据，以确保接口测试正常。                                               3.对于所迁代码有些验证修改以及注解添加等。</t>
+  </si>
+  <si>
     <t>代码和文档</t>
-  </si>
-  <si>
-    <t>王琪</t>
-  </si>
-  <si>
-    <t>范小燕</t>
-  </si>
-  <si>
-    <t>1.迁移代码，任务有十个接口。                                2.测试所负责的接口，并找到相关测试参数数据，以确保接口测试正常。                                               3.对于所迁代码有些验证修改以及注解添加等。</t>
   </si>
   <si>
     <t>罗健</t>
@@ -117,30 +121,23 @@
     <t>周小龙</t>
   </si>
   <si>
+    <t>1.完成播放列表相关代码测试修改</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>playlist相关接口重写</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成黑白名单需求转交测试                                              2.根据新增的封装工具调整代码                                  3.文档编写</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码、文档</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成播放列表相关代码测试修改</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,47 +178,169 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,12 +349,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -269,18 +574,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -301,41 +854,82 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -627,343 +1221,345 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="16.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="49.15" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="8">
         <v>42940</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="8">
         <v>42944</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="34.9" customHeight="1" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>42940</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="8">
         <v>42944</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="51.75" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
+        <v>42940</v>
+      </c>
+      <c r="F5" s="8">
+        <v>42944</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" ht="51.75" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8">
+        <v>42940</v>
+      </c>
+      <c r="F6" s="8">
+        <v>42944</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="56.1" customHeight="1" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8">
+        <v>42940</v>
+      </c>
+      <c r="F7" s="8">
+        <v>42944</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="87" customHeight="1" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8">
+        <v>42940</v>
+      </c>
+      <c r="F9" s="8">
+        <v>42944</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="34.5" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8">
+        <v>42940</v>
+      </c>
+      <c r="F11" s="8">
+        <v>42944</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6">
-        <v>42940</v>
-      </c>
-      <c r="F5" s="6">
-        <v>42944</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6">
-        <v>42940</v>
-      </c>
-      <c r="F6" s="6">
-        <v>42944</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6">
-        <v>42940</v>
-      </c>
-      <c r="F7" s="6">
-        <v>42944</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6">
-        <v>42940</v>
-      </c>
-      <c r="F9" s="6">
-        <v>42944</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
-        <v>42940</v>
-      </c>
-      <c r="F11" s="6">
-        <v>42944</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170728周报/技术支撑服务人员周报日报-20170728.xlsx
+++ b/20170728周报/技术支撑服务人员周报日报-20170728.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\周报\weekReport\20170728周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>项目名称</t>
   </si>
@@ -136,11 +131,21 @@
 3、批量查询策略接口修改</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1把内容相关的接口独立出来
+2测试部分代码
+3线上问题支撑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -267,12 +272,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -304,6 +303,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -614,283 +619,299 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="16.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="48.44140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="53.77734375" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>42940</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>42944</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>42940</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>42944</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="s">
+      <c r="E4" s="5">
+        <v>42940</v>
+      </c>
+      <c r="F4" s="5">
+        <v>42944</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>42940</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>42944</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>42940</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>42944</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>42940</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>42944</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="E8" s="5">
+        <v>42940</v>
+      </c>
+      <c r="F8" s="5">
+        <v>42944</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>42940</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>42944</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8" t="s">
+      <c r="E10" s="5">
+        <v>42940</v>
+      </c>
+      <c r="F10" s="5">
+        <v>42944</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>42940</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>42944</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -907,42 +928,42 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/20170728周报/技术支撑服务人员周报日报-20170728.xlsx
+++ b/20170728周报/技术支撑服务人员周报日报-20170728.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>项目名称</t>
   </si>
@@ -68,6 +68,11 @@
   </si>
   <si>
     <t>凌河源</t>
+  </si>
+  <si>
+    <t>1、校园营销活动上线及验证
+2、白金会员领取免费数字专辑活动开发
+3、批量查询策略接口修改</t>
   </si>
   <si>
     <t>陆晨曦</t>
@@ -97,56 +102,47 @@
     <t>王琪</t>
   </si>
   <si>
-    <t>范小燕</t>
-  </si>
-  <si>
-    <t>1.迁移代码，任务有十个接口。                                2.测试所负责的接口，并找到相关测试参数数据，以确保接口测试正常。                                               3.对于所迁代码有些验证修改以及注解添加等。</t>
-  </si>
-  <si>
-    <t>代码和文档</t>
-  </si>
-  <si>
-    <t>罗健</t>
-  </si>
-  <si>
-    <t>1.MIGU2.0内容相关业务新框架迁移、调测；
-2.热门活动异省访问问题监控，问题原因排查；</t>
-  </si>
-  <si>
-    <t>周小龙</t>
-  </si>
-  <si>
-    <t>1.完成播放列表相关代码测试修改</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>代码、文档</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、校园营销活动上线及验证
-2、白金会员领取免费数字专辑活动开发
-3、批量查询策略接口修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1把内容相关的接口独立出来
 2测试部分代码
 3线上问题支撑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>范小燕</t>
+  </si>
+  <si>
+    <t>1.迁移代码，任务有10个接口。                                2.测试所负责的接口，并找到相关测试参数数据，以确保接口测试正常。                                               3.对于所迁代码有些验证修改以及注解添加等。</t>
+  </si>
+  <si>
+    <t>代码和文档</t>
+  </si>
+  <si>
+    <t>罗健</t>
+  </si>
+  <si>
+    <t>1.MIGU2.0内容相关业务新框架迁移、调测；
+2.热门活动异省访问问题监控，问题原因排查；</t>
+  </si>
+  <si>
+    <t>周小龙</t>
+  </si>
+  <si>
+    <t>1.完成播放列表相关代码测试修改</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,20 +153,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -180,12 +164,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -206,13 +184,155 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,12 +341,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -260,73 +566,405 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1584325</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>90805</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>2508250</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>929005</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13199745" y="4443730"/>
+              <a:ext cx="923925" cy="838200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -610,366 +1248,396 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="53.77734375" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16.3333333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.4416666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.6666666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.775" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.6666666666667" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.1083333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.4416666666667" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.775" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="49.2" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="8">
         <v>42940</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="8">
         <v>42944</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="34.95" customHeight="1" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="8">
         <v>42940</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="8">
         <v>42944</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" ht="51.75" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="8">
         <v>42940</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="8">
         <v>42944</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
+        <v>42940</v>
+      </c>
+      <c r="F5" s="8">
+        <v>42944</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="51.75" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8">
+        <v>42940</v>
+      </c>
+      <c r="F6" s="8">
+        <v>42944</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="56.1" customHeight="1" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8">
+        <v>42940</v>
+      </c>
+      <c r="F7" s="8">
+        <v>42944</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="51.75" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8">
+        <v>42940</v>
+      </c>
+      <c r="F8" s="8">
+        <v>42944</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="87" customHeight="1" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8">
+        <v>42940</v>
+      </c>
+      <c r="F9" s="8">
+        <v>42944</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" ht="34.5" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8">
+        <v>42940</v>
+      </c>
+      <c r="F10" s="8">
+        <v>42944</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8">
+        <v>42940</v>
+      </c>
+      <c r="F11" s="8">
+        <v>42944</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5">
-        <v>42940</v>
-      </c>
-      <c r="F5" s="5">
-        <v>42944</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5">
-        <v>42940</v>
-      </c>
-      <c r="F6" s="5">
-        <v>42944</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5">
-        <v>42940</v>
-      </c>
-      <c r="F7" s="5">
-        <v>42944</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5">
-        <v>42940</v>
-      </c>
-      <c r="F8" s="5">
-        <v>42944</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5">
-        <v>42940</v>
-      </c>
-      <c r="F9" s="5">
-        <v>42944</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="5">
-        <v>42940</v>
-      </c>
-      <c r="F10" s="5">
-        <v>42944</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="5">
-        <v>42940</v>
-      </c>
-      <c r="F11" s="5">
-        <v>42944</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="1025" progId="Excel.Sheet.12" r:id="rId3" dvAspect="DVASPECT_ICON">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>1584325</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>90805</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>2508250</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>929005</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="1025" progId="Excel.Sheet.12" r:id="rId3" dvAspect="DVASPECT_ICON"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170728周报/技术支撑服务人员周报日报-20170728.xlsx
+++ b/20170728周报/技术支撑服务人员周报日报-20170728.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>项目名称</t>
   </si>
@@ -119,25 +119,40 @@
     <t>罗健</t>
   </si>
   <si>
-    <t>周小龙</t>
-  </si>
-  <si>
-    <t>1.完成播放列表相关代码测试修改</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
     <t>1.MIGU2.0内容相关业务新框架迁移、调测；
 2.热门活动异省访问问题监控，问题原因排查；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周小龙</t>
+  </si>
+  <si>
+    <t>1.完成播放列表相关代码测试修改</t>
+  </si>
+  <si>
+    <t>陈皓阳</t>
+  </si>
+  <si>
+    <t>1.cms系统直播修改提交后回显radio选项和数据
+2.了解演唱会模块下的接口
+3.演唱会一拖三业务熟悉
+4.熟悉maven打包命令
+5.演唱会互动数据的分类、查询、删除需求分析</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,25 +193,156 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,12 +351,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -244,18 +570,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -288,19 +862,63 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -311,7 +929,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -327,7 +945,7 @@
           <xdr:row>8</xdr:row>
           <xdr:rowOff>933450</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1025" name="Object 1" hidden="1">
               <a:extLst>
@@ -340,8 +958,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="13201650" y="4446905"/>
+              <a:ext cx="923925" cy="838200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -637,321 +1255,344 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="16.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="49.15" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="8">
         <v>42940</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="8">
         <v>42944</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="34.9" customHeight="1" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>42940</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="8">
         <v>42944</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="51.75" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="8">
         <v>42940</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="8">
         <v>42944</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="8">
         <v>42940</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="8">
         <v>42944</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="51.75" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>42940</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="8">
         <v>42944</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+    <row r="7" ht="56.1" customHeight="1" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="8">
         <v>42940</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="8">
         <v>42944</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+    <row r="8" ht="51.75" spans="1:8">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>42940</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="8">
         <v>42944</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+    <row r="9" ht="87" customHeight="1" spans="1:8">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="8">
         <v>42940</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="8">
         <v>42944</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+    <row r="10" ht="34.5" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="8">
         <v>42940</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="8">
         <v>42944</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8">
+        <v>42940</v>
+      </c>
+      <c r="F11" s="8">
+        <v>42944</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="93" customHeight="1" spans="2:8">
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8">
+        <v>42940</v>
+      </c>
+      <c r="F12" s="8">
+        <v>42944</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
-        <v>42940</v>
-      </c>
-      <c r="F11" s="6">
-        <v>42944</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="8"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Excel.Sheet.12" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId3">
+        <oleObject shapeId="1025" progId="Excel.Sheet.12" r:id="rId3" dvAspect="DVASPECT_ICON">
           <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -971,7 +1612,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Excel.Sheet.12" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId3"/>
+        <oleObject shapeId="1025" progId="Excel.Sheet.12" r:id="rId3" dvAspect="DVASPECT_ICON"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -979,55 +1620,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>